--- a/com.SuperStoreProject/src/test/resources/Excel.xlsx
+++ b/com.SuperStoreProject/src/test/resources/Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\SeleniumTestRepository\com.SuperStoreProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\TestRepository\com.SuperStoreProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B521183A-C2A2-4724-9630-1B1EC5E92B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5113D28-6418-4D9D-8E98-71D2A3752379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2952" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,30 +69,18 @@
     <t>First Name</t>
   </si>
   <si>
-    <t>Devi</t>
-  </si>
-  <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>Das</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
-    <t>Das Cottage Essex UK</t>
-  </si>
-  <si>
     <t>Postcode</t>
   </si>
   <si>
     <t>Ni Number</t>
   </si>
   <si>
-    <t>devidas@gmail.com</t>
-  </si>
-  <si>
     <t>Date Of Birth</t>
   </si>
   <si>
@@ -108,13 +96,25 @@
     <t>Sort Code</t>
   </si>
   <si>
-    <t>Devi Das</t>
-  </si>
-  <si>
     <t>DeductionTab</t>
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>Hila Arman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hila </t>
+  </si>
+  <si>
+    <t>Arman</t>
+  </si>
+  <si>
+    <t>hilaarman@gmail.com</t>
+  </si>
+  <si>
+    <t>Hila Manzil Essex UK</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,23 +530,23 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -562,12 +562,12 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>756984</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>4400</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>35350</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>45092</v>
@@ -599,15 +599,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>8965423</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>100200</v>
@@ -623,12 +623,12 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>3000</v>
